--- a/Code/Results/Cases/Case_3_214/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_214/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.014696118684465</v>
+        <v>1.041500726959166</v>
       </c>
       <c r="D2">
-        <v>1.02920209639466</v>
+        <v>1.042809449445845</v>
       </c>
       <c r="E2">
-        <v>1.024825731343392</v>
+        <v>1.049424201371748</v>
       </c>
       <c r="F2">
-        <v>1.026361332904269</v>
+        <v>1.059587858845765</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.051278866881168</v>
+        <v>1.041764316285448</v>
       </c>
       <c r="J2">
-        <v>1.036445983642394</v>
+        <v>1.046581597868908</v>
       </c>
       <c r="K2">
-        <v>1.040269055325587</v>
+        <v>1.045585088494984</v>
       </c>
       <c r="L2">
-        <v>1.035949708224087</v>
+        <v>1.052181298452591</v>
       </c>
       <c r="M2">
-        <v>1.037465233673573</v>
+        <v>1.062316954605946</v>
       </c>
       <c r="N2">
-        <v>1.015679360575879</v>
+        <v>1.019387048081298</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.019665273601403</v>
+        <v>1.042522565608063</v>
       </c>
       <c r="D3">
-        <v>1.032857034815955</v>
+        <v>1.043571594603126</v>
       </c>
       <c r="E3">
-        <v>1.02931573630825</v>
+        <v>1.050405863304858</v>
       </c>
       <c r="F3">
-        <v>1.031856325801423</v>
+        <v>1.060819475880776</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.053076653472745</v>
+        <v>1.042060898866488</v>
       </c>
       <c r="J3">
-        <v>1.039633830529386</v>
+        <v>1.047249130345354</v>
       </c>
       <c r="K3">
-        <v>1.043086080085955</v>
+        <v>1.046158268481656</v>
       </c>
       <c r="L3">
-        <v>1.03958676941147</v>
+        <v>1.052974766166621</v>
       </c>
       <c r="M3">
-        <v>1.042097199909526</v>
+        <v>1.063361775068393</v>
       </c>
       <c r="N3">
-        <v>1.016768045104771</v>
+        <v>1.019612474797878</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.022808171362267</v>
+        <v>1.043183739775688</v>
       </c>
       <c r="D4">
-        <v>1.035170808317764</v>
+        <v>1.044064642681008</v>
       </c>
       <c r="E4">
-        <v>1.032161185009365</v>
+        <v>1.051041449461118</v>
       </c>
       <c r="F4">
-        <v>1.035340279924058</v>
+        <v>1.061617288383875</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.054202507071103</v>
+        <v>1.042251419096339</v>
       </c>
       <c r="J4">
-        <v>1.04164590450532</v>
+        <v>1.04768045206977</v>
       </c>
       <c r="K4">
-        <v>1.044862504027031</v>
+        <v>1.046528382357188</v>
       </c>
       <c r="L4">
-        <v>1.041886350073</v>
+        <v>1.053487961682206</v>
       </c>
       <c r="M4">
-        <v>1.045030098093015</v>
+        <v>1.064038150279682</v>
       </c>
       <c r="N4">
-        <v>1.017454871436084</v>
+        <v>1.019758039069796</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.024112768812994</v>
+        <v>1.04346169180272</v>
       </c>
       <c r="D5">
-        <v>1.036131687675708</v>
+        <v>1.044271892983075</v>
       </c>
       <c r="E5">
-        <v>1.033343628438725</v>
+        <v>1.05130874192134</v>
       </c>
       <c r="F5">
-        <v>1.036788485049977</v>
+        <v>1.061952898269934</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.054667110881168</v>
+        <v>1.042331181209005</v>
       </c>
       <c r="J5">
-        <v>1.042480067119113</v>
+        <v>1.047861631959427</v>
       </c>
       <c r="K5">
-        <v>1.045598575283499</v>
+        <v>1.046683793137255</v>
       </c>
       <c r="L5">
-        <v>1.04284067330248</v>
+        <v>1.053703653637468</v>
       </c>
       <c r="M5">
-        <v>1.046248297292095</v>
+        <v>1.064322571943794</v>
       </c>
       <c r="N5">
-        <v>1.017739531915799</v>
+        <v>1.019819161873376</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.024330857439013</v>
+        <v>1.043508360846009</v>
       </c>
       <c r="D6">
-        <v>1.03629234184269</v>
+        <v>1.044306689614007</v>
       </c>
       <c r="E6">
-        <v>1.033541373162791</v>
+        <v>1.05135362689341</v>
       </c>
       <c r="F6">
-        <v>1.037030700373573</v>
+        <v>1.062009260940857</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.054744616635027</v>
+        <v>1.042344554110281</v>
       </c>
       <c r="J6">
-        <v>1.042619451558136</v>
+        <v>1.047892044189715</v>
       </c>
       <c r="K6">
-        <v>1.045721545502749</v>
+        <v>1.046709876428451</v>
       </c>
       <c r="L6">
-        <v>1.043000193186434</v>
+        <v>1.053739866011954</v>
       </c>
       <c r="M6">
-        <v>1.04645198778363</v>
+        <v>1.064370331908627</v>
       </c>
       <c r="N6">
-        <v>1.017787092208044</v>
+        <v>1.019829420410342</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.022825668120295</v>
+        <v>1.043187453806125</v>
       </c>
       <c r="D7">
-        <v>1.035183693569827</v>
+        <v>1.044067412076947</v>
       </c>
       <c r="E7">
-        <v>1.032177038324437</v>
+        <v>1.051045020674631</v>
       </c>
       <c r="F7">
-        <v>1.035359694635426</v>
+        <v>1.061621771995994</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.054208749004982</v>
+        <v>1.042252486188669</v>
       </c>
       <c r="J7">
-        <v>1.041657096114718</v>
+        <v>1.04768287358517</v>
       </c>
       <c r="K7">
-        <v>1.044872381167766</v>
+        <v>1.046530459691303</v>
       </c>
       <c r="L7">
-        <v>1.041899149988377</v>
+        <v>1.053490843986632</v>
       </c>
       <c r="M7">
-        <v>1.045046433078565</v>
+        <v>1.064041950446784</v>
       </c>
       <c r="N7">
-        <v>1.017458690942608</v>
+        <v>1.019758856080416</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.016390893320146</v>
+        <v>1.041846067093779</v>
       </c>
       <c r="D8">
-        <v>1.030448171222627</v>
+        <v>1.043067042562321</v>
       </c>
       <c r="E8">
-        <v>1.026355892104122</v>
+        <v>1.049755878737874</v>
       </c>
       <c r="F8">
-        <v>1.028233672108987</v>
+        <v>1.060003908810836</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.051894347724479</v>
+        <v>1.041864835157104</v>
       </c>
       <c r="J8">
-        <v>1.037534083929927</v>
+        <v>1.046807321115418</v>
       </c>
       <c r="K8">
-        <v>1.04123091217873</v>
+        <v>1.045778957004006</v>
       </c>
       <c r="L8">
-        <v>1.037190309205734</v>
+        <v>1.05244950238254</v>
       </c>
       <c r="M8">
-        <v>1.039044313404526</v>
+        <v>1.062669993196586</v>
       </c>
       <c r="N8">
-        <v>1.01605102180468</v>
+        <v>1.019463294517077</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.004464516993726</v>
+        <v>1.039482185499676</v>
       </c>
       <c r="D9">
-        <v>1.021690712031738</v>
+        <v>1.041303440422732</v>
       </c>
       <c r="E9">
-        <v>1.015613121250458</v>
+        <v>1.047487204308245</v>
       </c>
       <c r="F9">
-        <v>1.015093725114866</v>
+        <v>1.057159707052039</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.047517036690766</v>
+        <v>1.041171117500864</v>
       </c>
       <c r="J9">
-        <v>1.029860600731339</v>
+        <v>1.04525977272911</v>
       </c>
       <c r="K9">
-        <v>1.03444140884325</v>
+        <v>1.044448814202829</v>
       </c>
       <c r="L9">
-        <v>1.028457865342195</v>
+        <v>1.050612759133474</v>
       </c>
       <c r="M9">
-        <v>1.02794657334949</v>
+        <v>1.060254769746391</v>
       </c>
       <c r="N9">
-        <v>1.013428904767925</v>
+        <v>1.018940171405395</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9960698437130114</v>
+        <v>1.037906129101758</v>
       </c>
       <c r="D10">
-        <v>1.015543870839611</v>
+        <v>1.040127184413451</v>
       </c>
       <c r="E10">
-        <v>1.008085218882364</v>
+        <v>1.045976751649598</v>
       </c>
       <c r="F10">
-        <v>1.005890558349004</v>
+        <v>1.055268042083044</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.044379199393549</v>
+        <v>1.04070150286699</v>
       </c>
       <c r="J10">
-        <v>1.024440265053138</v>
+        <v>1.044224913637805</v>
       </c>
       <c r="K10">
-        <v>1.029638034997072</v>
+        <v>1.0435581015646</v>
       </c>
       <c r="L10">
-        <v>1.022310010714003</v>
+        <v>1.049387079120883</v>
       </c>
       <c r="M10">
-        <v>1.020154265249083</v>
+        <v>1.058646181842939</v>
       </c>
       <c r="N10">
-        <v>1.011575622625997</v>
+        <v>1.018589880023473</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9923175971596252</v>
+        <v>1.037223644064274</v>
       </c>
       <c r="D11">
-        <v>1.012801449253744</v>
+        <v>1.039617735110478</v>
       </c>
       <c r="E11">
-        <v>1.004728942914134</v>
+        <v>1.045323183420831</v>
       </c>
       <c r="F11">
-        <v>1.00178775708254</v>
+        <v>1.054449984627616</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.04296381886241</v>
+        <v>1.040496463355857</v>
       </c>
       <c r="J11">
-        <v>1.022013502642661</v>
+        <v>1.043776059786233</v>
       </c>
       <c r="K11">
-        <v>1.027485920617845</v>
+        <v>1.043171478729596</v>
       </c>
       <c r="L11">
-        <v>1.019562225945204</v>
+        <v>1.048856065035866</v>
       </c>
       <c r="M11">
-        <v>1.016676037492227</v>
+        <v>1.057950012093535</v>
       </c>
       <c r="N11">
-        <v>1.010745722600057</v>
+        <v>1.018437835488799</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9909051017658711</v>
+        <v>1.036970132009385</v>
       </c>
       <c r="D12">
-        <v>1.011769946031934</v>
+        <v>1.039428484944344</v>
       </c>
       <c r="E12">
-        <v>1.003466840734602</v>
+        <v>1.045080489314586</v>
       </c>
       <c r="F12">
-        <v>1.000244923756775</v>
+        <v>1.054146278206922</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.042429142232763</v>
+        <v>1.040420048202943</v>
       </c>
       <c r="J12">
-        <v>1.021099424708678</v>
+        <v>1.043609222342134</v>
       </c>
       <c r="K12">
-        <v>1.026675073832298</v>
+        <v>1.043027728943868</v>
       </c>
       <c r="L12">
-        <v>1.018527921591442</v>
+        <v>1.048658779597467</v>
       </c>
       <c r="M12">
-        <v>1.015367432917871</v>
+        <v>1.057691477229178</v>
       </c>
       <c r="N12">
-        <v>1.01043311268541</v>
+        <v>1.018381304464833</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9912089540544484</v>
+        <v>1.037024511516129</v>
       </c>
       <c r="D13">
-        <v>1.011991800240051</v>
+        <v>1.039469080555746</v>
       </c>
       <c r="E13">
-        <v>1.003738279720184</v>
+        <v>1.045132544846597</v>
       </c>
       <c r="F13">
-        <v>1.000576740627496</v>
+        <v>1.054211417190874</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.042544244024001</v>
+        <v>1.040436451021721</v>
       </c>
       <c r="J13">
-        <v>1.021296082638954</v>
+        <v>1.04364501466004</v>
       </c>
       <c r="K13">
-        <v>1.02684953187217</v>
+        <v>1.043058570132555</v>
       </c>
       <c r="L13">
-        <v>1.018750414446306</v>
+        <v>1.04870109994876</v>
       </c>
       <c r="M13">
-        <v>1.015648902728966</v>
+        <v>1.057746931417462</v>
       </c>
       <c r="N13">
-        <v>1.010500369217388</v>
+        <v>1.01839343304504</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9922012290346989</v>
+        <v>1.037202688818107</v>
       </c>
       <c r="D14">
-        <v>1.012716451211333</v>
+        <v>1.039602091997718</v>
       </c>
       <c r="E14">
-        <v>1.004624937495917</v>
+        <v>1.045303120817767</v>
       </c>
       <c r="F14">
-        <v>1.001660618095943</v>
+        <v>1.05442487697019</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.042919807313056</v>
+        <v>1.040490152043851</v>
       </c>
       <c r="J14">
-        <v>1.021938207354701</v>
+        <v>1.043762271259066</v>
       </c>
       <c r="K14">
-        <v>1.027419133135699</v>
+        <v>1.043159599200012</v>
       </c>
       <c r="L14">
-        <v>1.019477013287976</v>
+        <v>1.048839758241161</v>
       </c>
       <c r="M14">
-        <v>1.016568213241478</v>
+        <v>1.057928640430464</v>
       </c>
       <c r="N14">
-        <v>1.010719972257591</v>
+        <v>1.018433163736481</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9928100835298377</v>
+        <v>1.037312468832032</v>
       </c>
       <c r="D15">
-        <v>1.013161208313881</v>
+        <v>1.039684042362864</v>
       </c>
       <c r="E15">
-        <v>1.005169163211655</v>
+        <v>1.045408227608877</v>
       </c>
       <c r="F15">
-        <v>1.002325893439665</v>
+        <v>1.054556417310732</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.04315000610546</v>
+        <v>1.040523205313626</v>
       </c>
       <c r="J15">
-        <v>1.022332140955725</v>
+        <v>1.043834501927654</v>
       </c>
       <c r="K15">
-        <v>1.027768546351694</v>
+        <v>1.043221827882727</v>
       </c>
       <c r="L15">
-        <v>1.019922861152504</v>
+        <v>1.048925184468436</v>
       </c>
       <c r="M15">
-        <v>1.017132395222422</v>
+        <v>1.058040604437485</v>
       </c>
       <c r="N15">
-        <v>1.010854693606315</v>
+        <v>1.018457635852554</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.996316303009221</v>
+        <v>1.037951422463899</v>
       </c>
       <c r="D16">
-        <v>1.015724114944398</v>
+        <v>1.040160992336921</v>
       </c>
       <c r="E16">
-        <v>1.008305851483466</v>
+        <v>1.046020136671898</v>
       </c>
       <c r="F16">
-        <v>1.006160268233942</v>
+        <v>1.055322355847913</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.044471903825285</v>
+        <v>1.040715074992636</v>
       </c>
       <c r="J16">
-        <v>1.024599583755499</v>
+        <v>1.044254686723782</v>
       </c>
       <c r="K16">
-        <v>1.029779291558227</v>
+        <v>1.043583740689376</v>
       </c>
       <c r="L16">
-        <v>1.02249050125201</v>
+        <v>1.049422314729898</v>
       </c>
       <c r="M16">
-        <v>1.020382827260855</v>
+        <v>1.05869239187304</v>
       </c>
       <c r="N16">
-        <v>1.011630103589086</v>
+        <v>1.018599963013108</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9984834948396765</v>
+        <v>1.038352209623823</v>
       </c>
       <c r="D17">
-        <v>1.017309644908637</v>
+        <v>1.040460137905489</v>
       </c>
       <c r="E17">
-        <v>1.010246917452012</v>
+        <v>1.046404096260734</v>
       </c>
       <c r="F17">
-        <v>1.008533139121577</v>
+        <v>1.055803088464282</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.045285631179502</v>
+        <v>1.040834976467828</v>
       </c>
       <c r="J17">
-        <v>1.026000075101847</v>
+        <v>1.044518055933962</v>
       </c>
       <c r="K17">
-        <v>1.031020830911195</v>
+        <v>1.043810507892122</v>
       </c>
       <c r="L17">
-        <v>1.024077635237518</v>
+        <v>1.049734074611282</v>
       </c>
       <c r="M17">
-        <v>1.02239318763349</v>
+        <v>1.059101336841657</v>
       </c>
       <c r="N17">
-        <v>1.012109001601774</v>
+        <v>1.018689143135163</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.999736344119573</v>
+        <v>1.03858597794565</v>
       </c>
       <c r="D18">
-        <v>1.018226712409238</v>
+        <v>1.040634612588725</v>
       </c>
       <c r="E18">
-        <v>1.011369848965326</v>
+        <v>1.046628098525516</v>
       </c>
       <c r="F18">
-        <v>1.009905915964322</v>
+        <v>1.056083592626136</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.045754826706186</v>
+        <v>1.040904749590036</v>
       </c>
       <c r="J18">
-        <v>1.026809315757891</v>
+        <v>1.044671602081576</v>
       </c>
       <c r="K18">
-        <v>1.031738074834172</v>
+        <v>1.043942686815593</v>
       </c>
       <c r="L18">
-        <v>1.024995168223496</v>
+        <v>1.049915891235006</v>
       </c>
       <c r="M18">
-        <v>1.0235558233878</v>
+        <v>1.059339902230836</v>
       </c>
       <c r="N18">
-        <v>1.012385705827466</v>
+        <v>1.018741125067125</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.000161659909105</v>
+        <v>1.038665686227336</v>
       </c>
       <c r="D19">
-        <v>1.01853811554105</v>
+        <v>1.040694101921395</v>
       </c>
       <c r="E19">
-        <v>1.011751195543289</v>
+        <v>1.046704485165533</v>
       </c>
       <c r="F19">
-        <v>1.010372118520085</v>
+        <v>1.056179254439364</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.045913900286655</v>
+        <v>1.040928512708176</v>
       </c>
       <c r="J19">
-        <v>1.027083969790265</v>
+        <v>1.044723945026163</v>
       </c>
       <c r="K19">
-        <v>1.031981479469153</v>
+        <v>1.043987741049951</v>
       </c>
       <c r="L19">
-        <v>1.025306652327208</v>
+        <v>1.049977881320261</v>
       </c>
       <c r="M19">
-        <v>1.023950589371152</v>
+        <v>1.059421252763391</v>
       </c>
       <c r="N19">
-        <v>1.012479615569329</v>
+        <v>1.018758843568467</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9982521457767984</v>
+        <v>1.038309209375875</v>
       </c>
       <c r="D20">
-        <v>1.017140338610082</v>
+        <v>1.040428043641275</v>
       </c>
       <c r="E20">
-        <v>1.01003962354733</v>
+        <v>1.046362896362488</v>
       </c>
       <c r="F20">
-        <v>1.00827972732719</v>
+        <v>1.055751499965565</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.0451988913714</v>
+        <v>1.040822129073015</v>
       </c>
       <c r="J20">
-        <v>1.025850610938808</v>
+        <v>1.044489806425378</v>
       </c>
       <c r="K20">
-        <v>1.030888345989632</v>
+        <v>1.04378618728228</v>
       </c>
       <c r="L20">
-        <v>1.023908205947125</v>
+        <v>1.049700628586175</v>
       </c>
       <c r="M20">
-        <v>1.022178533523438</v>
+        <v>1.059057457329666</v>
       </c>
       <c r="N20">
-        <v>1.012057893891294</v>
+        <v>1.018679578605212</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9919095556832498</v>
+        <v>1.037150220232307</v>
       </c>
       <c r="D21">
-        <v>1.012503420126641</v>
+        <v>1.039562923937124</v>
       </c>
       <c r="E21">
-        <v>1.004364272572545</v>
+        <v>1.045252888507254</v>
       </c>
       <c r="F21">
-        <v>1.001341974048432</v>
+        <v>1.054362014069005</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.042809463706715</v>
+        <v>1.040474345452199</v>
       </c>
       <c r="J21">
-        <v>1.021749473244501</v>
+        <v>1.043727745236394</v>
       </c>
       <c r="K21">
-        <v>1.027251721100996</v>
+        <v>1.043129852544838</v>
       </c>
       <c r="L21">
-        <v>1.019263431526203</v>
+        <v>1.048798928022447</v>
       </c>
       <c r="M21">
-        <v>1.016297966844448</v>
+        <v>1.057875130179489</v>
       </c>
       <c r="N21">
-        <v>1.010655426598055</v>
+        <v>1.018421465553354</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9878126456155374</v>
+        <v>1.036421478665244</v>
       </c>
       <c r="D22">
-        <v>1.009513291588858</v>
+        <v>1.039018884838717</v>
       </c>
       <c r="E22">
-        <v>1.000706162975375</v>
+        <v>1.044555388846577</v>
       </c>
       <c r="F22">
-        <v>0.9968700997961087</v>
+        <v>1.053489294547307</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.041255167034244</v>
+        <v>1.040254208524468</v>
       </c>
       <c r="J22">
-        <v>1.019097232903785</v>
+        <v>1.043247952535431</v>
       </c>
       <c r="K22">
-        <v>1.024898615068417</v>
+        <v>1.042716373993114</v>
       </c>
       <c r="L22">
-        <v>1.01626364360744</v>
+        <v>1.048231743302129</v>
       </c>
       <c r="M22">
-        <v>1.012503816661354</v>
+        <v>1.057132063949666</v>
       </c>
       <c r="N22">
-        <v>1.009748355548344</v>
+        <v>1.018258861957919</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9899952332585307</v>
+        <v>1.03680780219073</v>
       </c>
       <c r="D23">
-        <v>1.011105748396515</v>
+        <v>1.039307299976838</v>
       </c>
       <c r="E23">
-        <v>1.002654231635193</v>
+        <v>1.044925108110823</v>
       </c>
       <c r="F23">
-        <v>0.9992515548992034</v>
+        <v>1.053951854055772</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.042084206780062</v>
+        <v>1.040371046746369</v>
       </c>
       <c r="J23">
-        <v>1.020510467451311</v>
+        <v>1.043502361772396</v>
       </c>
       <c r="K23">
-        <v>1.02615257072046</v>
+        <v>1.042935643991589</v>
       </c>
       <c r="L23">
-        <v>1.017861693362678</v>
+        <v>1.048532442368241</v>
       </c>
       <c r="M23">
-        <v>1.014524697577713</v>
+        <v>1.057525948194645</v>
       </c>
       <c r="N23">
-        <v>1.010231689213886</v>
+        <v>1.018345091285196</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9983567171033797</v>
+        <v>1.038328639349296</v>
       </c>
       <c r="D24">
-        <v>1.017216864722297</v>
+        <v>1.040442545694413</v>
       </c>
       <c r="E24">
-        <v>1.010133319287538</v>
+        <v>1.046381512683486</v>
       </c>
       <c r="F24">
-        <v>1.008394267976943</v>
+        <v>1.055774810275325</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.045238102130254</v>
+        <v>1.040827934762471</v>
       </c>
       <c r="J24">
-        <v>1.025918170926402</v>
+        <v>1.044502571386706</v>
       </c>
       <c r="K24">
-        <v>1.030948231578747</v>
+        <v>1.043797176998701</v>
       </c>
       <c r="L24">
-        <v>1.023984789081589</v>
+        <v>1.049715741490518</v>
       </c>
       <c r="M24">
-        <v>1.022275557223934</v>
+        <v>1.059077284484904</v>
       </c>
       <c r="N24">
-        <v>1.012080995372982</v>
+        <v>1.018683900513718</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.00762218718738</v>
+        <v>1.040093328698449</v>
       </c>
       <c r="D25">
-        <v>1.024006700255239</v>
+        <v>1.041759468073672</v>
       </c>
       <c r="E25">
-        <v>1.018451804036532</v>
+        <v>1.048073359629875</v>
       </c>
       <c r="F25">
-        <v>1.018564843942841</v>
+        <v>1.057894212019885</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.048685941576929</v>
+        <v>1.041351718592091</v>
       </c>
       <c r="J25">
-        <v>1.03189572925522</v>
+        <v>1.045660408712732</v>
       </c>
       <c r="K25">
-        <v>1.036243432652251</v>
+        <v>1.044793385475079</v>
       </c>
       <c r="L25">
-        <v>1.030770276427804</v>
+        <v>1.051087810292456</v>
       </c>
       <c r="M25">
-        <v>1.030881641664611</v>
+        <v>1.060878886839183</v>
       </c>
       <c r="N25">
-        <v>1.014124550516122</v>
+        <v>1.019075683732071</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_214/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_214/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.041500726959166</v>
+        <v>1.014696118684464</v>
       </c>
       <c r="D2">
-        <v>1.042809449445845</v>
+        <v>1.029202096394658</v>
       </c>
       <c r="E2">
-        <v>1.049424201371748</v>
+        <v>1.02482573134339</v>
       </c>
       <c r="F2">
-        <v>1.059587858845765</v>
+        <v>1.026361332904267</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.041764316285448</v>
+        <v>1.051278866881167</v>
       </c>
       <c r="J2">
-        <v>1.046581597868908</v>
+        <v>1.036445983642393</v>
       </c>
       <c r="K2">
-        <v>1.045585088494984</v>
+        <v>1.040269055325586</v>
       </c>
       <c r="L2">
-        <v>1.052181298452591</v>
+        <v>1.035949708224086</v>
       </c>
       <c r="M2">
-        <v>1.062316954605946</v>
+        <v>1.037465233673571</v>
       </c>
       <c r="N2">
-        <v>1.019387048081298</v>
+        <v>1.015679360575879</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.042522565608063</v>
+        <v>1.019665273601403</v>
       </c>
       <c r="D3">
-        <v>1.043571594603126</v>
+        <v>1.032857034815954</v>
       </c>
       <c r="E3">
-        <v>1.050405863304858</v>
+        <v>1.02931573630825</v>
       </c>
       <c r="F3">
-        <v>1.060819475880776</v>
+        <v>1.031856325801423</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.042060898866488</v>
+        <v>1.053076653472744</v>
       </c>
       <c r="J3">
-        <v>1.047249130345354</v>
+        <v>1.039633830529386</v>
       </c>
       <c r="K3">
-        <v>1.046158268481656</v>
+        <v>1.043086080085955</v>
       </c>
       <c r="L3">
-        <v>1.052974766166621</v>
+        <v>1.03958676941147</v>
       </c>
       <c r="M3">
-        <v>1.063361775068393</v>
+        <v>1.042097199909526</v>
       </c>
       <c r="N3">
-        <v>1.019612474797878</v>
+        <v>1.016768045104771</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.043183739775688</v>
+        <v>1.022808171362267</v>
       </c>
       <c r="D4">
-        <v>1.044064642681008</v>
+        <v>1.035170808317764</v>
       </c>
       <c r="E4">
-        <v>1.051041449461118</v>
+        <v>1.032161185009365</v>
       </c>
       <c r="F4">
-        <v>1.061617288383875</v>
+        <v>1.035340279924058</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.042251419096339</v>
+        <v>1.054202507071103</v>
       </c>
       <c r="J4">
-        <v>1.04768045206977</v>
+        <v>1.04164590450532</v>
       </c>
       <c r="K4">
-        <v>1.046528382357188</v>
+        <v>1.044862504027031</v>
       </c>
       <c r="L4">
-        <v>1.053487961682206</v>
+        <v>1.041886350073</v>
       </c>
       <c r="M4">
-        <v>1.064038150279682</v>
+        <v>1.045030098093015</v>
       </c>
       <c r="N4">
-        <v>1.019758039069796</v>
+        <v>1.017454871436084</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.04346169180272</v>
+        <v>1.024112768812994</v>
       </c>
       <c r="D5">
-        <v>1.044271892983075</v>
+        <v>1.036131687675709</v>
       </c>
       <c r="E5">
-        <v>1.05130874192134</v>
+        <v>1.033343628438725</v>
       </c>
       <c r="F5">
-        <v>1.061952898269934</v>
+        <v>1.036788485049977</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.042331181209005</v>
+        <v>1.054667110881168</v>
       </c>
       <c r="J5">
-        <v>1.047861631959427</v>
+        <v>1.042480067119114</v>
       </c>
       <c r="K5">
-        <v>1.046683793137255</v>
+        <v>1.0455985752835</v>
       </c>
       <c r="L5">
-        <v>1.053703653637468</v>
+        <v>1.042840673302481</v>
       </c>
       <c r="M5">
-        <v>1.064322571943794</v>
+        <v>1.046248297292096</v>
       </c>
       <c r="N5">
-        <v>1.019819161873376</v>
+        <v>1.017739531915799</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.043508360846009</v>
+        <v>1.024330857439013</v>
       </c>
       <c r="D6">
-        <v>1.044306689614007</v>
+        <v>1.036292341842691</v>
       </c>
       <c r="E6">
-        <v>1.05135362689341</v>
+        <v>1.033541373162792</v>
       </c>
       <c r="F6">
-        <v>1.062009260940857</v>
+        <v>1.037030700373574</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.042344554110281</v>
+        <v>1.054744616635027</v>
       </c>
       <c r="J6">
-        <v>1.047892044189715</v>
+        <v>1.042619451558136</v>
       </c>
       <c r="K6">
-        <v>1.046709876428451</v>
+        <v>1.04572154550275</v>
       </c>
       <c r="L6">
-        <v>1.053739866011954</v>
+        <v>1.043000193186434</v>
       </c>
       <c r="M6">
-        <v>1.064370331908627</v>
+        <v>1.04645198778363</v>
       </c>
       <c r="N6">
-        <v>1.019829420410342</v>
+        <v>1.017787092208044</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.043187453806125</v>
+        <v>1.022825668120296</v>
       </c>
       <c r="D7">
-        <v>1.044067412076947</v>
+        <v>1.035183693569828</v>
       </c>
       <c r="E7">
-        <v>1.051045020674631</v>
+        <v>1.032177038324438</v>
       </c>
       <c r="F7">
-        <v>1.061621771995994</v>
+        <v>1.035359694635426</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.042252486188669</v>
+        <v>1.054208749004983</v>
       </c>
       <c r="J7">
-        <v>1.04768287358517</v>
+        <v>1.041657096114718</v>
       </c>
       <c r="K7">
-        <v>1.046530459691303</v>
+        <v>1.044872381167766</v>
       </c>
       <c r="L7">
-        <v>1.053490843986632</v>
+        <v>1.041899149988377</v>
       </c>
       <c r="M7">
-        <v>1.064041950446784</v>
+        <v>1.045046433078565</v>
       </c>
       <c r="N7">
-        <v>1.019758856080416</v>
+        <v>1.017458690942608</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.041846067093779</v>
+        <v>1.016390893320146</v>
       </c>
       <c r="D8">
-        <v>1.043067042562321</v>
+        <v>1.030448171222627</v>
       </c>
       <c r="E8">
-        <v>1.049755878737874</v>
+        <v>1.026355892104122</v>
       </c>
       <c r="F8">
-        <v>1.060003908810836</v>
+        <v>1.028233672108988</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.041864835157104</v>
+        <v>1.051894347724479</v>
       </c>
       <c r="J8">
-        <v>1.046807321115418</v>
+        <v>1.037534083929927</v>
       </c>
       <c r="K8">
-        <v>1.045778957004006</v>
+        <v>1.04123091217873</v>
       </c>
       <c r="L8">
-        <v>1.05244950238254</v>
+        <v>1.037190309205734</v>
       </c>
       <c r="M8">
-        <v>1.062669993196586</v>
+        <v>1.039044313404527</v>
       </c>
       <c r="N8">
-        <v>1.019463294517077</v>
+        <v>1.01605102180468</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.039482185499676</v>
+        <v>1.004464516993727</v>
       </c>
       <c r="D9">
-        <v>1.041303440422732</v>
+        <v>1.02169071203174</v>
       </c>
       <c r="E9">
-        <v>1.047487204308245</v>
+        <v>1.015613121250459</v>
       </c>
       <c r="F9">
-        <v>1.057159707052039</v>
+        <v>1.015093725114867</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.041171117500864</v>
+        <v>1.047517036690767</v>
       </c>
       <c r="J9">
-        <v>1.04525977272911</v>
+        <v>1.02986060073134</v>
       </c>
       <c r="K9">
-        <v>1.044448814202829</v>
+        <v>1.034441408843251</v>
       </c>
       <c r="L9">
-        <v>1.050612759133474</v>
+        <v>1.028457865342196</v>
       </c>
       <c r="M9">
-        <v>1.060254769746391</v>
+        <v>1.027946573349491</v>
       </c>
       <c r="N9">
-        <v>1.018940171405395</v>
+        <v>1.013428904767925</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.037906129101758</v>
+        <v>0.9960698437130098</v>
       </c>
       <c r="D10">
-        <v>1.040127184413451</v>
+        <v>1.015543870839609</v>
       </c>
       <c r="E10">
-        <v>1.045976751649598</v>
+        <v>1.008085218882363</v>
       </c>
       <c r="F10">
-        <v>1.055268042083044</v>
+        <v>1.005890558349003</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.04070150286699</v>
+        <v>1.044379199393548</v>
       </c>
       <c r="J10">
-        <v>1.044224913637805</v>
+        <v>1.024440265053137</v>
       </c>
       <c r="K10">
-        <v>1.0435581015646</v>
+        <v>1.029638034997071</v>
       </c>
       <c r="L10">
-        <v>1.049387079120883</v>
+        <v>1.022310010714001</v>
       </c>
       <c r="M10">
-        <v>1.058646181842939</v>
+        <v>1.020154265249081</v>
       </c>
       <c r="N10">
-        <v>1.018589880023473</v>
+        <v>1.011575622625996</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.037223644064274</v>
+        <v>0.9923175971596235</v>
       </c>
       <c r="D11">
-        <v>1.039617735110478</v>
+        <v>1.012801449253742</v>
       </c>
       <c r="E11">
-        <v>1.045323183420831</v>
+        <v>1.004728942914132</v>
       </c>
       <c r="F11">
-        <v>1.054449984627616</v>
+        <v>1.001787757082538</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.040496463355857</v>
+        <v>1.042963818862409</v>
       </c>
       <c r="J11">
-        <v>1.043776059786233</v>
+        <v>1.02201350264266</v>
       </c>
       <c r="K11">
-        <v>1.043171478729596</v>
+        <v>1.027485920617843</v>
       </c>
       <c r="L11">
-        <v>1.048856065035866</v>
+        <v>1.019562225945202</v>
       </c>
       <c r="M11">
-        <v>1.057950012093535</v>
+        <v>1.016676037492225</v>
       </c>
       <c r="N11">
-        <v>1.018437835488799</v>
+        <v>1.010745722600056</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.036970132009385</v>
+        <v>0.990905101765872</v>
       </c>
       <c r="D12">
-        <v>1.039428484944344</v>
+        <v>1.011769946031936</v>
       </c>
       <c r="E12">
-        <v>1.045080489314586</v>
+        <v>1.003466840734602</v>
       </c>
       <c r="F12">
-        <v>1.054146278206922</v>
+        <v>1.000244923756775</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.040420048202943</v>
+        <v>1.042429142232763</v>
       </c>
       <c r="J12">
-        <v>1.043609222342134</v>
+        <v>1.021099424708678</v>
       </c>
       <c r="K12">
-        <v>1.043027728943868</v>
+        <v>1.026675073832299</v>
       </c>
       <c r="L12">
-        <v>1.048658779597467</v>
+        <v>1.018527921591443</v>
       </c>
       <c r="M12">
-        <v>1.057691477229178</v>
+        <v>1.015367432917871</v>
       </c>
       <c r="N12">
-        <v>1.018381304464833</v>
+        <v>1.01043311268541</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.037024511516129</v>
+        <v>0.9912089540544489</v>
       </c>
       <c r="D13">
-        <v>1.039469080555746</v>
+        <v>1.011991800240052</v>
       </c>
       <c r="E13">
-        <v>1.045132544846597</v>
+        <v>1.003738279720184</v>
       </c>
       <c r="F13">
-        <v>1.054211417190874</v>
+        <v>1.000576740627497</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.040436451021721</v>
+        <v>1.042544244024002</v>
       </c>
       <c r="J13">
-        <v>1.04364501466004</v>
+        <v>1.021296082638955</v>
       </c>
       <c r="K13">
-        <v>1.043058570132555</v>
+        <v>1.026849531872171</v>
       </c>
       <c r="L13">
-        <v>1.04870109994876</v>
+        <v>1.018750414446306</v>
       </c>
       <c r="M13">
-        <v>1.057746931417462</v>
+        <v>1.015648902728967</v>
       </c>
       <c r="N13">
-        <v>1.01839343304504</v>
+        <v>1.010500369217388</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.037202688818107</v>
+        <v>0.9922012290346975</v>
       </c>
       <c r="D14">
-        <v>1.039602091997718</v>
+        <v>1.012716451211331</v>
       </c>
       <c r="E14">
-        <v>1.045303120817767</v>
+        <v>1.004624937495916</v>
       </c>
       <c r="F14">
-        <v>1.05442487697019</v>
+        <v>1.001660618095942</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.040490152043851</v>
+        <v>1.042919807313056</v>
       </c>
       <c r="J14">
-        <v>1.043762271259066</v>
+        <v>1.0219382073547</v>
       </c>
       <c r="K14">
-        <v>1.043159599200012</v>
+        <v>1.027419133135698</v>
       </c>
       <c r="L14">
-        <v>1.048839758241161</v>
+        <v>1.019477013287974</v>
       </c>
       <c r="M14">
-        <v>1.057928640430464</v>
+        <v>1.016568213241477</v>
       </c>
       <c r="N14">
-        <v>1.018433163736481</v>
+        <v>1.010719972257591</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.037312468832032</v>
+        <v>0.9928100835298374</v>
       </c>
       <c r="D15">
-        <v>1.039684042362864</v>
+        <v>1.013161208313881</v>
       </c>
       <c r="E15">
-        <v>1.045408227608877</v>
+        <v>1.005169163211654</v>
       </c>
       <c r="F15">
-        <v>1.054556417310732</v>
+        <v>1.002325893439665</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.040523205313626</v>
+        <v>1.043150006105459</v>
       </c>
       <c r="J15">
-        <v>1.043834501927654</v>
+        <v>1.022332140955724</v>
       </c>
       <c r="K15">
-        <v>1.043221827882727</v>
+        <v>1.027768546351694</v>
       </c>
       <c r="L15">
-        <v>1.048925184468436</v>
+        <v>1.019922861152503</v>
       </c>
       <c r="M15">
-        <v>1.058040604437485</v>
+        <v>1.017132395222421</v>
       </c>
       <c r="N15">
-        <v>1.018457635852554</v>
+        <v>1.010854693606315</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.037951422463899</v>
+        <v>0.9963163030092211</v>
       </c>
       <c r="D16">
-        <v>1.040160992336921</v>
+        <v>1.015724114944398</v>
       </c>
       <c r="E16">
-        <v>1.046020136671898</v>
+        <v>1.008305851483466</v>
       </c>
       <c r="F16">
-        <v>1.055322355847913</v>
+        <v>1.006160268233942</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.040715074992636</v>
+        <v>1.044471903825285</v>
       </c>
       <c r="J16">
-        <v>1.044254686723782</v>
+        <v>1.0245995837555</v>
       </c>
       <c r="K16">
-        <v>1.043583740689376</v>
+        <v>1.029779291558227</v>
       </c>
       <c r="L16">
-        <v>1.049422314729898</v>
+        <v>1.02249050125201</v>
       </c>
       <c r="M16">
-        <v>1.05869239187304</v>
+        <v>1.020382827260855</v>
       </c>
       <c r="N16">
-        <v>1.018599963013108</v>
+        <v>1.011630103589087</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.038352209623823</v>
+        <v>0.9984834948396768</v>
       </c>
       <c r="D17">
-        <v>1.040460137905489</v>
+        <v>1.017309644908637</v>
       </c>
       <c r="E17">
-        <v>1.046404096260734</v>
+        <v>1.010246917452012</v>
       </c>
       <c r="F17">
-        <v>1.055803088464282</v>
+        <v>1.008533139121577</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.040834976467828</v>
+        <v>1.045285631179502</v>
       </c>
       <c r="J17">
-        <v>1.044518055933962</v>
+        <v>1.026000075101847</v>
       </c>
       <c r="K17">
-        <v>1.043810507892122</v>
+        <v>1.031020830911196</v>
       </c>
       <c r="L17">
-        <v>1.049734074611282</v>
+        <v>1.024077635237518</v>
       </c>
       <c r="M17">
-        <v>1.059101336841657</v>
+        <v>1.022393187633491</v>
       </c>
       <c r="N17">
-        <v>1.018689143135163</v>
+        <v>1.012109001601774</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.03858597794565</v>
+        <v>0.9997363441195743</v>
       </c>
       <c r="D18">
-        <v>1.040634612588725</v>
+        <v>1.018226712409239</v>
       </c>
       <c r="E18">
-        <v>1.046628098525516</v>
+        <v>1.011369848965327</v>
       </c>
       <c r="F18">
-        <v>1.056083592626136</v>
+        <v>1.009905915964323</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.040904749590036</v>
+        <v>1.045754826706187</v>
       </c>
       <c r="J18">
-        <v>1.044671602081576</v>
+        <v>1.026809315757892</v>
       </c>
       <c r="K18">
-        <v>1.043942686815593</v>
+        <v>1.031738074834174</v>
       </c>
       <c r="L18">
-        <v>1.049915891235006</v>
+        <v>1.024995168223496</v>
       </c>
       <c r="M18">
-        <v>1.059339902230836</v>
+        <v>1.023555823387801</v>
       </c>
       <c r="N18">
-        <v>1.018741125067125</v>
+        <v>1.012385705827466</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.038665686227336</v>
+        <v>1.000161659909106</v>
       </c>
       <c r="D19">
-        <v>1.040694101921395</v>
+        <v>1.01853811554105</v>
       </c>
       <c r="E19">
-        <v>1.046704485165533</v>
+        <v>1.01175119554329</v>
       </c>
       <c r="F19">
-        <v>1.056179254439364</v>
+        <v>1.010372118520086</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.040928512708176</v>
+        <v>1.045913900286656</v>
       </c>
       <c r="J19">
-        <v>1.044723945026163</v>
+        <v>1.027083969790266</v>
       </c>
       <c r="K19">
-        <v>1.043987741049951</v>
+        <v>1.031981479469154</v>
       </c>
       <c r="L19">
-        <v>1.049977881320261</v>
+        <v>1.025306652327209</v>
       </c>
       <c r="M19">
-        <v>1.059421252763391</v>
+        <v>1.023950589371153</v>
       </c>
       <c r="N19">
-        <v>1.018758843568467</v>
+        <v>1.012479615569329</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.038309209375875</v>
+        <v>0.9982521457767982</v>
       </c>
       <c r="D20">
-        <v>1.040428043641275</v>
+        <v>1.017140338610082</v>
       </c>
       <c r="E20">
-        <v>1.046362896362488</v>
+        <v>1.010039623547329</v>
       </c>
       <c r="F20">
-        <v>1.055751499965565</v>
+        <v>1.00827972732719</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.040822129073015</v>
+        <v>1.0451988913714</v>
       </c>
       <c r="J20">
-        <v>1.044489806425378</v>
+        <v>1.025850610938808</v>
       </c>
       <c r="K20">
-        <v>1.04378618728228</v>
+        <v>1.030888345989632</v>
       </c>
       <c r="L20">
-        <v>1.049700628586175</v>
+        <v>1.023908205947125</v>
       </c>
       <c r="M20">
-        <v>1.059057457329666</v>
+        <v>1.022178533523438</v>
       </c>
       <c r="N20">
-        <v>1.018679578605212</v>
+        <v>1.012057893891294</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.037150220232307</v>
+        <v>0.9919095556832498</v>
       </c>
       <c r="D21">
-        <v>1.039562923937124</v>
+        <v>1.012503420126641</v>
       </c>
       <c r="E21">
-        <v>1.045252888507254</v>
+        <v>1.004364272572545</v>
       </c>
       <c r="F21">
-        <v>1.054362014069005</v>
+        <v>1.001341974048432</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.040474345452199</v>
+        <v>1.042809463706715</v>
       </c>
       <c r="J21">
-        <v>1.043727745236394</v>
+        <v>1.021749473244501</v>
       </c>
       <c r="K21">
-        <v>1.043129852544838</v>
+        <v>1.027251721100997</v>
       </c>
       <c r="L21">
-        <v>1.048798928022447</v>
+        <v>1.019263431526203</v>
       </c>
       <c r="M21">
-        <v>1.057875130179489</v>
+        <v>1.016297966844447</v>
       </c>
       <c r="N21">
-        <v>1.018421465553354</v>
+        <v>1.010655426598055</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.036421478665244</v>
+        <v>0.9878126456155372</v>
       </c>
       <c r="D22">
-        <v>1.039018884838717</v>
+        <v>1.009513291588857</v>
       </c>
       <c r="E22">
-        <v>1.044555388846577</v>
+        <v>1.000706162975375</v>
       </c>
       <c r="F22">
-        <v>1.053489294547307</v>
+        <v>0.9968700997961084</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.040254208524468</v>
+        <v>1.041255167034244</v>
       </c>
       <c r="J22">
-        <v>1.043247952535431</v>
+        <v>1.019097232903785</v>
       </c>
       <c r="K22">
-        <v>1.042716373993114</v>
+        <v>1.024898615068417</v>
       </c>
       <c r="L22">
-        <v>1.048231743302129</v>
+        <v>1.01626364360744</v>
       </c>
       <c r="M22">
-        <v>1.057132063949666</v>
+        <v>1.012503816661354</v>
       </c>
       <c r="N22">
-        <v>1.018258861957919</v>
+        <v>1.009748355548344</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.03680780219073</v>
+        <v>0.9899952332585295</v>
       </c>
       <c r="D23">
-        <v>1.039307299976838</v>
+        <v>1.011105748396514</v>
       </c>
       <c r="E23">
-        <v>1.044925108110823</v>
+        <v>1.002654231635192</v>
       </c>
       <c r="F23">
-        <v>1.053951854055772</v>
+        <v>0.999251554899202</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.040371046746369</v>
+        <v>1.042084206780061</v>
       </c>
       <c r="J23">
-        <v>1.043502361772396</v>
+        <v>1.02051046745131</v>
       </c>
       <c r="K23">
-        <v>1.042935643991589</v>
+        <v>1.026152570720459</v>
       </c>
       <c r="L23">
-        <v>1.048532442368241</v>
+        <v>1.017861693362677</v>
       </c>
       <c r="M23">
-        <v>1.057525948194645</v>
+        <v>1.014524697577712</v>
       </c>
       <c r="N23">
-        <v>1.018345091285196</v>
+        <v>1.010231689213885</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.038328639349296</v>
+        <v>0.9983567171033793</v>
       </c>
       <c r="D24">
-        <v>1.040442545694413</v>
+        <v>1.017216864722297</v>
       </c>
       <c r="E24">
-        <v>1.046381512683486</v>
+        <v>1.010133319287538</v>
       </c>
       <c r="F24">
-        <v>1.055774810275325</v>
+        <v>1.008394267976943</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.040827934762471</v>
+        <v>1.045238102130254</v>
       </c>
       <c r="J24">
-        <v>1.044502571386706</v>
+        <v>1.025918170926401</v>
       </c>
       <c r="K24">
-        <v>1.043797176998701</v>
+        <v>1.030948231578747</v>
       </c>
       <c r="L24">
-        <v>1.049715741490518</v>
+        <v>1.023984789081588</v>
       </c>
       <c r="M24">
-        <v>1.059077284484904</v>
+        <v>1.022275557223934</v>
       </c>
       <c r="N24">
-        <v>1.018683900513718</v>
+        <v>1.012080995372982</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.040093328698449</v>
+        <v>1.00762218718738</v>
       </c>
       <c r="D25">
-        <v>1.041759468073672</v>
+        <v>1.024006700255238</v>
       </c>
       <c r="E25">
-        <v>1.048073359629875</v>
+        <v>1.018451804036531</v>
       </c>
       <c r="F25">
-        <v>1.057894212019885</v>
+        <v>1.01856484394284</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.041351718592091</v>
+        <v>1.048685941576929</v>
       </c>
       <c r="J25">
-        <v>1.045660408712732</v>
+        <v>1.031895729255219</v>
       </c>
       <c r="K25">
-        <v>1.044793385475079</v>
+        <v>1.03624343265225</v>
       </c>
       <c r="L25">
-        <v>1.051087810292456</v>
+        <v>1.030770276427804</v>
       </c>
       <c r="M25">
-        <v>1.060878886839183</v>
+        <v>1.03088164166461</v>
       </c>
       <c r="N25">
-        <v>1.019075683732071</v>
+        <v>1.014124550516121</v>
       </c>
     </row>
   </sheetData>
